--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3860411.264139206</v>
+        <v>3858117.668682612</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>99.79795702274666</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>38.37398454316056</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>188.4649415276189</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>122.2882635917089</v>
       </c>
       <c r="F5" t="n">
-        <v>351.3979797893895</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1060,7 +1060,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>60.93363506459416</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>23.35772589727774</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>142.3478174606653</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>218.8748435506846</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>17.1579442152432</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>71.6703719699171</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,16 +1373,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722593</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701357</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>78.91051008678096</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.3978296695742</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710082</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141629</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>80.67842139643707</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>103.1686991936197</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.85274231757869</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603486</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>179.0601483711169</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,10 +3041,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,16 +3430,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.799772605716619</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633909</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>373.9157775549434</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>373.9157775549434</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>373.9157775549434</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>373.9157775549434</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>366.9702768057399</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872908</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2461.533311205462</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2461.533311205462</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2207.952250469642</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1876.889363126071</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1524.120707855957</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1150.654949594877</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>760.5156176190651</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4407,25 +4407,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380231</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694948</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>871.8507152289177</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="C4" t="n">
-        <v>702.9145323010108</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D4" t="n">
-        <v>552.7978928886751</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E4" t="n">
-        <v>404.8847993062819</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>257.9948518083715</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>90.00838711665014</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4486,52 +4486,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1092.643294372448</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.643294372448</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="X4" t="n">
-        <v>1092.643294372448</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="Y4" t="n">
-        <v>871.8507152289177</v>
+        <v>379.7851988961531</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1561.900772669912</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C5" t="n">
-        <v>1561.900772669912</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D5" t="n">
-        <v>1561.900772669912</v>
+        <v>654.0504646744055</v>
       </c>
       <c r="E5" t="n">
-        <v>1176.112520071668</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176918</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645724</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y5" t="n">
-        <v>1561.900772669912</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064583</v>
@@ -4644,16 +4644,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4665,31 +4665,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>692.3528358643467</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C7" t="n">
-        <v>523.4166529364398</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>373.3000135241041</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>225.386919941711</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>225.386919941711</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>225.386919941711</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W7" t="n">
-        <v>1101.990851592604</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X7" t="n">
-        <v>874.0013006945865</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="Y7" t="n">
-        <v>874.0013006945865</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363905</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678289</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>181.169050396912</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="12">
@@ -5103,43 +5103,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O12" t="n">
-        <v>2299.457522348532</v>
+        <v>2222.001901828444</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>699.7311804011399</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>721.7774158311364</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>552.8412329032295</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797747</v>
@@ -5473,13 +5473,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,22 +5586,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
         <v>1307.627092998424</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>198.0274703142544</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5829,28 +5829,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2149.810879820877</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6236,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806535</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>1166.195182806535</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>620.8230468926974</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
         <v>175.9033664000583</v>
@@ -6616,55 +6616,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>802.4715117229372</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6677,28 +6677,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6710,37 +6710,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803938</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7148,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273905</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684978</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.28814409505</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1815.886107649656</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2367.795837888943</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7719,7 +7719,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
         <v>95.58405025273903</v>
@@ -7728,19 +7728,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>193.3273467878355</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>186.5911984019047</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.18682368252064</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>205.8445769401539</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.31459260779044</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>62.35543909864911</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.20633287440187</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>112.9792378643586</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624238</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>39.52450498097787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405072</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604371</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176756</v>
@@ -26320,37 +26320,37 @@
         <v>800515.7256176757</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="G2" t="n">
         <v>786967.9346977556</v>
       </c>
       <c r="H2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="L2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="I2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>786967.9346977558</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.9346977556</v>
       </c>
       <c r="N2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977554</v>
       </c>
       <c r="P2" t="n">
         <v>786967.9346977557</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121061</v>
+        <v>203438.7416121057</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>1.287209419513539e-11</v>
+        <v>4.897497092315462e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099827</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605451</v>
+        <v>49110.09270605448</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26418,37 +26418,37 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.1790931202</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768865</v>
+        <v>9947.144321769021</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768868</v>
+        <v>9947.144321768963</v>
       </c>
       <c r="G4" t="n">
+        <v>9947.144321768963</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9947.144321768921</v>
+      </c>
+      <c r="I4" t="n">
         <v>9947.144321768912</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="I4" t="n">
-        <v>9947.144321768899</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9947.144321768879</v>
-      </c>
       <c r="K4" t="n">
-        <v>9947.14432176885</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768881</v>
+        <v>9947.144321768921</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.14432176889</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-545104.2408053095</v>
+        <v>-545104.2408053098</v>
       </c>
       <c r="C6" t="n">
-        <v>400008.8643510561</v>
+        <v>400008.8643510564</v>
       </c>
       <c r="D6" t="n">
-        <v>603447.6059631623</v>
+        <v>603447.605963162</v>
       </c>
       <c r="E6" t="n">
-        <v>350485.7987447244</v>
+        <v>350451.0608192892</v>
       </c>
       <c r="F6" t="n">
-        <v>675898.2605520796</v>
+        <v>675863.5226266437</v>
       </c>
       <c r="G6" t="n">
-        <v>675898.2605520796</v>
+        <v>675863.5226266441</v>
       </c>
       <c r="H6" t="n">
-        <v>675898.2605520799</v>
+        <v>675863.5226266438</v>
       </c>
       <c r="I6" t="n">
-        <v>675898.2605520798</v>
+        <v>675863.5226266445</v>
       </c>
       <c r="J6" t="n">
-        <v>508293.0827420973</v>
+        <v>508258.3448166618</v>
       </c>
       <c r="K6" t="n">
-        <v>626788.1678460254</v>
+        <v>626753.4299205896</v>
       </c>
       <c r="L6" t="n">
-        <v>675898.2605520796</v>
+        <v>675863.5226266441</v>
       </c>
       <c r="M6" t="n">
-        <v>590843.2326165679</v>
+        <v>590808.4946911326</v>
       </c>
       <c r="N6" t="n">
-        <v>675898.2605520799</v>
+        <v>675863.5226266442</v>
       </c>
       <c r="O6" t="n">
-        <v>675898.2605520799</v>
+        <v>675863.5226266438</v>
       </c>
       <c r="P6" t="n">
-        <v>675898.2605520799</v>
+        <v>675863.522626644</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26790,16 +26790,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,13 +26811,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26914,16 +26914,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>1.609011774391924e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26981,25 +26981,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27012,16 +27012,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,16 +27151,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>1.609011774391924e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>309.7844173726981</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>23.65425837604772</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>108.8775246119683</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>30.11971182447584</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>259.6421064805529</v>
       </c>
       <c r="F5" t="n">
-        <v>55.47806595232191</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27780,7 +27780,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>83.82137984972661</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>195.2269274548171</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>222.9250743103422</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>108.8774149194503</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>150.0888768833846</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911113</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28093,16 +28093,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2.508117851338566e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-7.713553933517059e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.429578708524912e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,10 +29761,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>390.1398273256871</v>
+        <v>431.3680753731359</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319848</v>
+        <v>277.2922978908101</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,7 +32549,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>549.9198891312103</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32944,34 +32944,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33032,31 +33032,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>581.3243739860823</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>284.1014732918236</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313203</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>553.5225306839452</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34793,10 +34793,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>256.1654199113569</v>
+        <v>297.3936679588056</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875403</v>
+        <v>134.6960534463657</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,7 +36197,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>407.3236446867659</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>439.1903400640639</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>439.190340064064</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>150.1270658774933</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
